--- a/data-builder/slavers.xlsx
+++ b/data-builder/slavers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Bonus" sheetId="4" r:id="rId4"/>
     <sheet name="Set" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="81">
   <si>
     <t>Strength</t>
   </si>
@@ -263,12 +263,15 @@
   </si>
   <si>
     <t>Spell Saves</t>
+  </si>
+  <si>
+    <t>Competence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -618,15 +621,15 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,11 +935,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -963,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -991,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,7 +1319,7 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,10 +1347,10 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -1662,18 +1668,18 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1698,10 +1704,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1712,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1726,10 +1732,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1740,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1754,10 +1760,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1768,10 +1774,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1782,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1796,10 +1802,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1810,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1824,10 +1830,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1838,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1852,10 +1858,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1866,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1880,10 +1886,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1894,10 +1900,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1908,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1922,10 +1928,10 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1936,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1950,10 +1956,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1964,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1978,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2076,10 +2082,10 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2090,10 +2096,10 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2104,10 +2110,10 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2118,10 +2124,10 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2132,10 +2138,10 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2146,10 +2152,10 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2160,10 +2166,10 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2174,10 +2180,10 @@
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2188,10 +2194,10 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2202,10 +2208,10 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2216,10 +2222,10 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2230,10 +2236,10 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2244,10 +2250,10 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2258,10 +2264,10 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2272,10 +2278,10 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2286,10 +2292,10 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2300,10 +2306,10 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2314,10 +2320,10 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2328,10 +2334,10 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2342,10 +2348,10 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2356,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2452,11 +2458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2864,7 +2870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3321,14 +3327,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3911,7 +3917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -4271,7 +4277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>78</v>
       </c>

--- a/data-builder/slavers.xlsx
+++ b/data-builder/slavers.xlsx
@@ -73,9 +73,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Armor Piercing</t>
-  </si>
-  <si>
     <t>Deadly</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>Competence</t>
+  </si>
+  <si>
+    <t>Armor-Piercing</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,12 +969,12 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -997,12 +997,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1053,12 +1053,12 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1067,12 +1067,12 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1081,12 +1081,12 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1095,12 +1095,12 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1109,12 +1109,12 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1123,12 +1123,12 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1137,12 +1137,12 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1151,12 +1151,12 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1165,12 +1165,12 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1179,12 +1179,12 @@
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1193,12 +1193,12 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1207,12 +1207,12 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1221,12 +1221,12 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1235,12 +1235,12 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1249,12 +1249,12 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -1263,12 +1263,12 @@
         <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1277,12 +1277,12 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -1291,12 +1291,12 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1305,7 +1305,7 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,12 +1319,12 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1347,12 +1347,12 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>28</v>
@@ -1403,12 +1403,12 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>28</v>
@@ -1417,12 +1417,12 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>28</v>
@@ -1431,12 +1431,12 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>28</v>
@@ -1445,12 +1445,12 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>28</v>
@@ -1459,12 +1459,12 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>28</v>
@@ -1473,12 +1473,12 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -1487,12 +1487,12 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -1501,12 +1501,12 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>28</v>
@@ -1515,12 +1515,12 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>28</v>
@@ -1529,12 +1529,12 @@
         <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -1543,12 +1543,12 @@
         <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>28</v>
@@ -1557,12 +1557,12 @@
         <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -1571,12 +1571,12 @@
         <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -1585,12 +1585,12 @@
         <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -1599,12 +1599,12 @@
         <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -1613,12 +1613,12 @@
         <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>28</v>
@@ -1627,12 +1627,12 @@
         <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>28</v>
@@ -1641,12 +1641,12 @@
         <v>185</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>28</v>
@@ -1655,7 +1655,7 @@
         <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1704,12 +1704,12 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1718,12 +1718,12 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1732,12 +1732,12 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1746,12 +1746,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1760,12 +1760,12 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1774,12 +1774,12 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1788,12 +1788,12 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1802,12 +1802,12 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1816,12 +1816,12 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1830,12 +1830,12 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1844,12 +1844,12 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1858,12 +1858,12 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1872,12 +1872,12 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1886,12 +1886,12 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1900,12 +1900,12 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1914,12 +1914,12 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1928,12 +1928,12 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1942,12 +1942,12 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1956,12 +1956,12 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1970,12 +1970,12 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1984,12 +1984,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2082,12 +2082,12 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -2096,12 +2096,12 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -2110,12 +2110,12 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -2124,12 +2124,12 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>28</v>
@@ -2138,12 +2138,12 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>28</v>
@@ -2152,12 +2152,12 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>28</v>
@@ -2166,12 +2166,12 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>28</v>
@@ -2180,12 +2180,12 @@
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>28</v>
@@ -2194,12 +2194,12 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>28</v>
@@ -2208,12 +2208,12 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -2222,12 +2222,12 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -2236,12 +2236,12 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>28</v>
@@ -2250,12 +2250,12 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>28</v>
@@ -2264,12 +2264,12 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -2278,12 +2278,12 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>28</v>
@@ -2292,12 +2292,12 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -2306,12 +2306,12 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -2320,12 +2320,12 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -2334,12 +2334,12 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -2348,12 +2348,12 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>28</v>
@@ -2362,12 +2362,12 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>28</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>28</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>28</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>28</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54">
         <v>28</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>28</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2587,12 +2587,12 @@
         <v>0.17</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2601,12 +2601,12 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -2615,12 +2615,12 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -2629,12 +2629,12 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2643,12 +2643,12 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -2657,12 +2657,12 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -2671,12 +2671,12 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -2685,12 +2685,12 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -2699,12 +2699,12 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2713,12 +2713,12 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -2727,12 +2727,12 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2741,12 +2741,12 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2755,12 +2755,12 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -2769,12 +2769,12 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -2783,12 +2783,12 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -2797,12 +2797,12 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -2811,12 +2811,12 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -2825,12 +2825,12 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -2839,12 +2839,12 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -2853,12 +2853,12 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2867,12 +2867,12 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -2881,12 +2881,12 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -2895,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,12 +3007,12 @@
         <v>0.45</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -3021,12 +3021,12 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41">
         <v>28</v>
@@ -3035,12 +3035,12 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>28</v>
@@ -3049,12 +3049,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -3063,12 +3063,12 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>28</v>
@@ -3077,12 +3077,12 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -3091,12 +3091,12 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -3105,12 +3105,12 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -3119,12 +3119,12 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -3133,12 +3133,12 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>28</v>
@@ -3147,12 +3147,12 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>28</v>
@@ -3161,12 +3161,12 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>28</v>
@@ -3175,12 +3175,12 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>28</v>
@@ -3189,12 +3189,12 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>28</v>
@@ -3203,12 +3203,12 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>28</v>
@@ -3217,12 +3217,12 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>28</v>
@@ -3231,12 +3231,12 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>28</v>
@@ -3245,12 +3245,12 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>28</v>
@@ -3259,12 +3259,12 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>28</v>
@@ -3273,12 +3273,12 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>28</v>
@@ -3287,12 +3287,12 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>28</v>
@@ -3301,12 +3301,12 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>28</v>
@@ -3315,7 +3315,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3339,13 +3339,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -3368,18 +3368,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -3388,18 +3388,18 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -3408,18 +3408,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -3428,18 +3428,18 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -3448,18 +3448,18 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -3468,18 +3468,18 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -3494,12 +3494,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3514,12 +3514,12 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -3528,18 +3528,18 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -3548,18 +3548,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>28</v>
@@ -3568,18 +3568,18 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>28</v>
@@ -3588,18 +3588,18 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -3608,18 +3608,18 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>28</v>
@@ -3628,18 +3628,18 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>28</v>
@@ -3654,12 +3654,12 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -3674,12 +3674,12 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -3688,18 +3688,18 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -3708,38 +3708,38 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -3748,18 +3748,18 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -3774,12 +3774,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -3794,12 +3794,12 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -3814,12 +3814,12 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -3828,18 +3828,18 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -3848,38 +3848,38 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>76</v>
-      </c>
-      <c r="B27">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -3888,18 +3888,18 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3914,12 +3914,12 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -3934,12 +3934,12 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -3954,12 +3954,12 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -3968,18 +3968,18 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -3988,18 +3988,18 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4008,18 +4008,18 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4028,18 +4028,18 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4054,12 +4054,12 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4068,18 +4068,18 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -4088,18 +4088,18 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -4108,38 +4108,38 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>78</v>
       </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <v>28</v>
@@ -4148,18 +4148,18 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42">
         <v>28</v>
@@ -4168,18 +4168,18 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -4188,18 +4188,18 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>28</v>
@@ -4208,18 +4208,18 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -4234,12 +4234,12 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -4248,18 +4248,18 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -4268,18 +4268,18 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -4288,33 +4288,33 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>78</v>
-      </c>
-      <c r="B49">
-        <v>28</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>79</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data-builder/slavers.xlsx
+++ b/data-builder/slavers.xlsx
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1375,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>

--- a/data-builder/slavers.xlsx
+++ b/data-builder/slavers.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2842FD8-FFD0-438C-967C-990E9B7FD821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -271,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,14 +616,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -932,10 +938,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1664,11 +1670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -3324,7 +3330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data-builder/slavers.xlsx
+++ b/data-builder/slavers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2842FD8-FFD0-438C-967C-990E9B7FD821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39359CB1-5487-494F-AD7E-FC1B7B9F7782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,19 @@
     <sheet name="Bonus" sheetId="4" r:id="rId4"/>
     <sheet name="Set" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,27 +40,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="81">
   <si>
+    <t>Affix</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Strength</t>
   </si>
   <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
     <t>False Life</t>
   </si>
   <si>
-    <t>Dexterity</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Intelligence</t>
-  </si>
-  <si>
-    <t>Wisdom</t>
-  </si>
-  <si>
-    <t>Charisma</t>
-  </si>
-  <si>
     <t>Fortification</t>
   </si>
   <si>
@@ -61,24 +85,15 @@
     <t>Wizardry</t>
   </si>
   <si>
-    <t>Affix</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Enhancement</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Armor-Piercing</t>
+  </si>
+  <si>
     <t>Deadly</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>Acid Lore</t>
   </si>
   <si>
+    <t>Equipment</t>
+  </si>
+  <si>
     <t>Fire Lore</t>
   </si>
   <si>
@@ -145,9 +163,6 @@
     <t>Resonance</t>
   </si>
   <si>
-    <t>Equipment</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -220,13 +235,16 @@
     <t>Spell Penetration</t>
   </si>
   <si>
+    <t>Stunning</t>
+  </si>
+  <si>
+    <t>Tendon Slice</t>
+  </si>
+  <si>
     <t>Vertigo</t>
   </si>
   <si>
-    <t>Stunning</t>
-  </si>
-  <si>
-    <t>Tendon Slice</t>
+    <t>Quality</t>
   </si>
   <si>
     <t>MRR</t>
@@ -235,27 +253,24 @@
     <t>PRR</t>
   </si>
   <si>
-    <t>Quality</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Pieces</t>
+  </si>
+  <si>
     <t>Slave Lord's Might</t>
   </si>
   <si>
-    <t>Pieces</t>
-  </si>
-  <si>
     <t>Ranged Power</t>
   </si>
   <si>
+    <t>Artifact</t>
+  </si>
+  <si>
     <t>Melee Power</t>
   </si>
   <si>
-    <t>Artifact</t>
-  </si>
-  <si>
     <t>Slave Lord's Sorcery</t>
   </si>
   <si>
@@ -266,19 +281,13 @@
   </si>
   <si>
     <t>Spell Saves</t>
-  </si>
-  <si>
-    <t>Competence</t>
-  </si>
-  <si>
-    <t>Armor-Piercing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,118 +636,118 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -747,12 +756,12 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -761,12 +770,12 @@
         <v>0.7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -775,12 +784,12 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -789,147 +798,147 @@
         <v>96</v>
       </c>
       <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
       <c r="B21">
         <v>28</v>
       </c>
       <c r="C21">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -941,30 +950,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -975,12 +984,12 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -989,12 +998,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1003,12 +1012,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1017,12 +1026,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1031,12 +1040,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1045,12 +1054,12 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1059,12 +1068,12 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1073,12 +1082,12 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1087,12 +1096,12 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1101,12 +1110,12 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1115,12 +1124,12 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1129,12 +1138,12 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1143,12 +1152,12 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1157,12 +1166,12 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1171,12 +1180,12 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1185,12 +1194,12 @@
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1199,12 +1208,12 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1213,12 +1222,12 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1227,12 +1236,12 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1241,12 +1250,12 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1255,12 +1264,12 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -1269,12 +1278,12 @@
         <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1283,12 +1292,12 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -1297,12 +1306,12 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1311,10 +1320,10 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1322,346 +1331,346 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>28</v>
       </c>
       <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <v>28</v>
+      </c>
+      <c r="C43">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
         <v>23</v>
       </c>
-      <c r="B36">
-        <v>28</v>
-      </c>
-      <c r="C36">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38">
-        <v>28</v>
-      </c>
-      <c r="C38">
-        <v>27</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39">
-        <v>28</v>
-      </c>
-      <c r="C39">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40">
-        <v>28</v>
-      </c>
-      <c r="C40">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41">
-        <v>28</v>
-      </c>
-      <c r="C41">
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42">
-        <v>28</v>
-      </c>
-      <c r="C42">
-        <v>185</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43">
-        <v>28</v>
-      </c>
-      <c r="C43">
-        <v>185</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44">
-        <v>28</v>
-      </c>
-      <c r="C44">
-        <v>185</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45">
-        <v>28</v>
-      </c>
-      <c r="C45">
-        <v>185</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46">
-        <v>28</v>
-      </c>
-      <c r="C46">
-        <v>185</v>
-      </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47">
-        <v>28</v>
-      </c>
-      <c r="C47">
-        <v>185</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48">
-        <v>28</v>
-      </c>
-      <c r="C48">
-        <v>185</v>
-      </c>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>28</v>
       </c>
       <c r="C49">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B50">
         <v>28</v>
       </c>
       <c r="C50">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>28</v>
       </c>
       <c r="C51">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1673,11 +1682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -1685,23 +1694,23 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1710,12 +1719,12 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1724,12 +1733,12 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1738,12 +1747,12 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1752,12 +1761,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1766,12 +1775,12 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1780,12 +1789,12 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1794,12 +1803,12 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1808,12 +1817,12 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1822,12 +1831,12 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1836,12 +1845,12 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1850,12 +1859,12 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1864,12 +1873,12 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.45">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1878,12 +1887,12 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.45">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1892,12 +1901,12 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1906,12 +1915,12 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.45">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1920,12 +1929,12 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1934,12 +1943,12 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1948,12 +1957,12 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1962,12 +1971,12 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.45">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1976,12 +1985,12 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.45">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1990,12 +1999,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.45">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -2004,12 +2013,12 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.45">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -2018,12 +2027,12 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.45">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -2032,12 +2041,12 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.45">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -2046,12 +2055,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.45">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -2060,12 +2069,12 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.45">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -2074,385 +2083,385 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.45">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.45">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>28</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>28</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>28</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>28</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>28</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>28</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>28</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>28</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>28</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>28</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>28</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>28</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>28</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>28</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>28</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>28</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>28</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>28</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>28</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>28</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>28</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>28</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>28</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2464,29 +2473,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -2498,9 +2507,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -2512,9 +2521,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -2526,9 +2535,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2540,9 +2549,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -2554,9 +2563,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -2568,9 +2577,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -2582,9 +2591,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2596,9 +2605,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2610,9 +2619,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -2624,9 +2633,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -2638,9 +2647,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2652,9 +2661,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -2666,9 +2675,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -2680,9 +2689,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -2694,9 +2703,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -2708,9 +2717,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2722,9 +2731,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -2736,9 +2745,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2750,9 +2759,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2764,9 +2773,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -2778,9 +2787,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -2792,9 +2801,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -2806,9 +2815,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -2820,9 +2829,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -2834,9 +2843,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -2848,9 +2857,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -2862,9 +2871,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2876,9 +2885,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -2890,9 +2899,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -2904,107 +2913,107 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>28</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="B34">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>28</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>28</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>28</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>28</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -3016,9 +3025,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -3030,9 +3039,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>28</v>
@@ -3044,9 +3053,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>28</v>
@@ -3058,9 +3067,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -3072,9 +3081,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>28</v>
@@ -3086,9 +3095,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -3100,9 +3109,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -3114,9 +3123,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -3128,9 +3137,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -3142,9 +3151,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>28</v>
@@ -3156,9 +3165,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>28</v>
@@ -3170,9 +3179,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>28</v>
@@ -3184,9 +3193,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>28</v>
@@ -3198,9 +3207,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>28</v>
@@ -3212,9 +3221,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>28</v>
@@ -3226,9 +3235,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>28</v>
@@ -3240,9 +3249,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>28</v>
@@ -3254,9 +3263,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>28</v>
@@ -3268,9 +3277,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>28</v>
@@ -3282,9 +3291,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>28</v>
@@ -3296,9 +3305,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>28</v>
@@ -3310,9 +3319,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>28</v>
@@ -3333,39 +3342,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -3374,18 +3383,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -3394,18 +3403,18 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -3414,38 +3423,38 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -3454,19 +3463,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
       <c r="B7">
         <v>8</v>
       </c>
@@ -3474,18 +3483,18 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -3494,18 +3503,18 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3514,18 +3523,18 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -3534,18 +3543,18 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -3554,18 +3563,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>73</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>70</v>
       </c>
       <c r="B12">
         <v>28</v>
@@ -3574,38 +3583,38 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -3614,18 +3623,18 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>28</v>
@@ -3634,18 +3643,18 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>28</v>
@@ -3654,18 +3663,18 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -3674,18 +3683,18 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -3694,18 +3703,18 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -3714,18 +3723,18 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -3734,18 +3743,18 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -3754,18 +3763,18 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -3774,18 +3783,18 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -3794,18 +3803,18 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -3814,18 +3823,18 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -3834,18 +3843,18 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -3854,18 +3863,18 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>28</v>
@@ -3874,18 +3883,18 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -3894,18 +3903,18 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3914,18 +3923,18 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -3934,18 +3943,18 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -3954,18 +3963,18 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -3974,18 +3983,18 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -3994,18 +4003,18 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4014,18 +4023,18 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4034,18 +4043,18 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4054,18 +4063,18 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4074,18 +4083,18 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -4094,18 +4103,18 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -4114,18 +4123,18 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -4134,18 +4143,18 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>28</v>
@@ -4154,18 +4163,18 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>28</v>
@@ -4174,18 +4183,18 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -4194,18 +4203,18 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>28</v>
@@ -4214,18 +4223,18 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -4234,18 +4243,18 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -4254,18 +4263,18 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -4274,18 +4283,18 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -4294,18 +4303,18 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49">
         <v>28</v>
@@ -4314,13 +4323,13 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data-builder/slavers.xlsx
+++ b/data-builder/slavers.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25009"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39359CB1-5487-494F-AD7E-FC1B7B9F7782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Bonus" sheetId="4" r:id="rId4"/>
     <sheet name="Set" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -286,8 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,21 +619,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -647,7 +641,7 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -675,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -689,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -703,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -717,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -731,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -745,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -759,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -773,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -787,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -801,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -815,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -829,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -843,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -857,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -871,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -885,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -899,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -913,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -927,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -947,19 +941,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -987,7 +981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1015,7 +1009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1071,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1113,7 +1107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1127,7 +1121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1155,7 +1149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1197,7 +1191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1211,7 +1205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1253,7 +1247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1267,7 +1261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1281,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1295,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1309,7 +1303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1323,7 +1317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1351,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1365,7 +1359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1477,7 +1471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1491,7 +1485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1505,7 +1499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -1603,7 +1597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1617,7 +1611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1659,7 +1653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1679,14 +1673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -1694,7 +1688,7 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1736,7 +1730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1750,7 +1744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1806,7 +1800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1848,7 +1842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1862,7 +1856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1904,7 +1898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +1940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1960,7 +1954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1974,7 +1968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2002,7 +1996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2030,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2044,7 +2038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2072,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2086,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2100,7 +2094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2114,7 +2108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2142,7 +2136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2156,7 +2150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2184,7 +2178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2226,7 +2220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2254,7 +2248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2268,7 +2262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2282,7 +2276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2296,7 +2290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2310,7 +2304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -2324,7 +2318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -2338,7 +2332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2352,7 +2346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2366,7 +2360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2394,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2422,7 +2416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -2450,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -2470,16 +2464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +2487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2507,7 +2501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2549,7 +2543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2571,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2591,7 +2585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +2599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2619,7 +2613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2633,7 +2627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2647,7 +2641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2661,7 +2655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2675,7 +2669,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2703,7 +2697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2717,7 +2711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2731,7 +2725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2745,7 +2739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2773,7 +2767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2815,7 +2809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2829,7 +2823,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2843,7 +2837,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2857,7 +2851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2885,7 +2879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2899,7 +2893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2913,7 +2907,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2927,7 +2921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2941,7 +2935,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +2963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +2977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -3019,13 +3013,13 @@
         <v>28</v>
       </c>
       <c r="C39" s="1">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3033,13 +3027,13 @@
         <v>28</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3047,13 +3041,13 @@
         <v>28</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3061,13 +3055,13 @@
         <v>28</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3075,13 +3069,13 @@
         <v>28</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3089,13 +3083,13 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3103,13 +3097,13 @@
         <v>28</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3117,13 +3111,13 @@
         <v>28</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3131,13 +3125,13 @@
         <v>28</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3145,13 +3139,13 @@
         <v>28</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3159,13 +3153,13 @@
         <v>28</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3173,13 +3167,13 @@
         <v>28</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3187,13 +3181,13 @@
         <v>28</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3201,13 +3195,13 @@
         <v>28</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3215,13 +3209,13 @@
         <v>28</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3229,13 +3223,13 @@
         <v>28</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3243,13 +3237,13 @@
         <v>28</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3257,13 +3251,13 @@
         <v>28</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3271,13 +3265,13 @@
         <v>28</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3285,13 +3279,13 @@
         <v>28</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3299,13 +3293,13 @@
         <v>28</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3313,13 +3307,13 @@
         <v>28</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3327,7 +3321,7 @@
         <v>28</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
         <v>68</v>
@@ -3339,20 +3333,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3372,7 +3366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3392,7 +3386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3412,7 +3406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -3432,7 +3426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -3452,7 +3446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -3472,7 +3466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -3492,7 +3486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3512,7 +3506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -3532,7 +3526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -3552,7 +3546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -3572,7 +3566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -3592,7 +3586,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -3612,7 +3606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -3632,7 +3626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3652,7 +3646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -3712,7 +3706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3732,7 +3726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -3752,7 +3746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -3772,7 +3766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3792,7 +3786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -3812,7 +3806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -3832,7 +3826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3852,7 +3846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -3872,7 +3866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -3892,7 +3886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -3912,7 +3906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -3932,7 +3926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -3952,7 +3946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3972,7 +3966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3992,7 +3986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -4012,7 +4006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -4032,7 +4026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -4052,7 +4046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -4072,7 +4066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4092,7 +4086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -4112,7 +4106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4132,7 +4126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -4172,7 +4166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4192,7 +4186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -4212,7 +4206,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4232,7 +4226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -4252,7 +4246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -4272,7 +4266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -4292,7 +4286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -4312,7 +4306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
